--- a/generate-id-replacing-report.xlsx
+++ b/generate-id-replacing-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Node\excerciseXlsxtoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC35280-3309-458B-AB66-10C3EEC47560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0525F500-C2B9-4321-8CB6-265D879AEA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="3000" windowWidth="21600" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -830,7 +834,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B60">
         <v>2505</v>
@@ -846,7 +850,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B62">
         <v>465</v>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B122">
         <v>577</v>
@@ -1334,7 +1338,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B123">
         <v>576</v>
@@ -1518,7 +1522,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2525</v>
+        <v>236</v>
       </c>
       <c r="B146">
         <v>237</v>
@@ -1526,346 +1530,346 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2528</v>
+        <v>197</v>
       </c>
       <c r="B147">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B148">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B149">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>234</v>
+        <v>2830</v>
       </c>
       <c r="B150">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>28320</v>
+        <v>88</v>
       </c>
       <c r="B151">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B152">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2832</v>
+        <v>2514</v>
       </c>
       <c r="B153">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2832</v>
+        <v>60</v>
       </c>
       <c r="B154">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2514</v>
+        <v>2064</v>
       </c>
       <c r="B155">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>60</v>
+        <v>2064</v>
       </c>
       <c r="B156">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2064</v>
+        <v>16</v>
       </c>
       <c r="B157">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2064</v>
+        <v>16</v>
       </c>
       <c r="B158">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>16</v>
+        <v>2331</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>39</v>
+        <v>2830</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2331</v>
+        <v>2832</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="B163">
-        <v>153</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2832</v>
+        <v>2667</v>
       </c>
       <c r="B164">
-        <v>328</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2832</v>
+        <v>2339</v>
       </c>
       <c r="B165">
-        <v>327</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2667</v>
+        <v>2646</v>
       </c>
       <c r="B166">
-        <v>2328</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2339</v>
+        <v>2650</v>
       </c>
       <c r="B167">
-        <v>2304</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2646</v>
+        <v>2004</v>
       </c>
       <c r="B168">
-        <v>2113</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2650</v>
+        <v>1186</v>
       </c>
       <c r="B169">
-        <v>2108</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2004</v>
+        <v>1141</v>
       </c>
       <c r="B170">
-        <v>2002</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1186</v>
+        <v>1141</v>
       </c>
       <c r="B171">
-        <v>1183</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1141</v>
+        <v>858</v>
       </c>
       <c r="B172">
-        <v>1140</v>
+        <v>862</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1141</v>
+        <v>786</v>
       </c>
       <c r="B173">
-        <v>1139</v>
+        <v>788</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>859</v>
+        <v>2403</v>
       </c>
       <c r="B174">
-        <v>862</v>
+        <v>787</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>786</v>
+        <v>467</v>
       </c>
       <c r="B175">
-        <v>788</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>2403</v>
+        <v>467</v>
       </c>
       <c r="B176">
-        <v>787</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>467</v>
+        <v>2097</v>
       </c>
       <c r="B177">
-        <v>673</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>467</v>
+        <v>2338</v>
       </c>
       <c r="B178">
-        <v>672</v>
+        <v>515</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2079</v>
+        <v>2338</v>
       </c>
       <c r="B179">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>2338</v>
+        <v>505</v>
       </c>
       <c r="B180">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>2338</v>
+        <v>503</v>
       </c>
       <c r="B181">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B182">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B183">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="B184">
-        <v>499</v>
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="B185">
-        <v>497</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B186">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="B187">
-        <v>412</v>
+        <v>333</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>413</v>
+        <v>2832</v>
       </c>
       <c r="B188">
-        <v>411</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="B189">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,23 +1877,23 @@
         <v>2832</v>
       </c>
       <c r="B190">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="B191">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2832</v>
+        <v>228</v>
       </c>
       <c r="B192">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,23 +1901,23 @@
         <v>228</v>
       </c>
       <c r="B193">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>228</v>
+        <v>2457</v>
       </c>
       <c r="B194">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>228</v>
+        <v>2457</v>
       </c>
       <c r="B195">
-        <v>309</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +1925,7 @@
         <v>2457</v>
       </c>
       <c r="B196">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +1933,7 @@
         <v>2457</v>
       </c>
       <c r="B197">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,47 +1941,47 @@
         <v>2457</v>
       </c>
       <c r="B198">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>2457</v>
+        <v>239</v>
       </c>
       <c r="B199">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>2457</v>
+        <v>251</v>
       </c>
       <c r="B200">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B201">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B202">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B203">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,47 +1989,47 @@
         <v>239</v>
       </c>
       <c r="B204">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B205">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B206">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B207">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B208">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B209">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2037,7 @@
         <v>151</v>
       </c>
       <c r="B210">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,111 +2045,111 @@
         <v>151</v>
       </c>
       <c r="B211">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>151</v>
+        <v>2831</v>
       </c>
       <c r="B212">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>151</v>
+        <v>2064</v>
       </c>
       <c r="B213">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>2831</v>
+        <v>2064</v>
       </c>
       <c r="B214">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2064</v>
+        <v>23</v>
       </c>
       <c r="B215">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>2064</v>
+        <v>23</v>
       </c>
       <c r="B216">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>23</v>
+        <v>764</v>
       </c>
       <c r="B217">
-        <v>22</v>
+        <v>759</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>23</v>
+        <v>607</v>
       </c>
       <c r="B218">
-        <v>18</v>
+        <v>608</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>764</v>
+        <v>2032</v>
       </c>
       <c r="B219">
-        <v>759</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>607</v>
+        <v>2032</v>
       </c>
       <c r="B220">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>2032</v>
+        <v>607</v>
       </c>
       <c r="B221">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2032</v>
+        <v>607</v>
       </c>
       <c r="B222">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>607</v>
+        <v>2346</v>
       </c>
       <c r="B223">
-        <v>599</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>607</v>
+        <v>2346</v>
       </c>
       <c r="B224">
-        <v>598</v>
+        <v>546</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,95 +2157,95 @@
         <v>2346</v>
       </c>
       <c r="B225">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>2346</v>
+        <v>551</v>
       </c>
       <c r="B226">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>2346</v>
+        <v>551</v>
       </c>
       <c r="B227">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="B228">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>551</v>
+        <v>2097</v>
       </c>
       <c r="B229">
-        <v>543</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>509</v>
+        <v>2295</v>
       </c>
       <c r="B230">
-        <v>508</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>2091</v>
+        <v>2295</v>
       </c>
       <c r="B231">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2295</v>
+        <v>299</v>
       </c>
       <c r="B232">
-        <v>471</v>
+        <v>298</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>2295</v>
+        <v>299</v>
       </c>
       <c r="B233">
-        <v>469</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>299</v>
+        <v>2600</v>
       </c>
       <c r="B234">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="B235">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>2600</v>
+        <v>185</v>
       </c>
       <c r="B236">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,15 +2253,15 @@
         <v>251</v>
       </c>
       <c r="B237">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="B238">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,230 +2269,214 @@
         <v>251</v>
       </c>
       <c r="B239">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>521</v>
+        <v>187</v>
       </c>
       <c r="B241">
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="B242">
-        <v>214</v>
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="B243">
-        <v>186</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B244">
-        <v>129</v>
+        <v>67</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B245">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>69</v>
+        <v>2670</v>
       </c>
       <c r="B246">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>16</v>
+        <v>2670</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2670</v>
+        <v>1105</v>
       </c>
       <c r="B248">
-        <v>9</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2670</v>
+        <v>842</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1105</v>
+        <v>1192</v>
       </c>
       <c r="B250">
-        <v>1121</v>
+        <v>921</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>842</v>
+        <v>763</v>
       </c>
       <c r="B251">
-        <v>1052</v>
+        <v>762</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>119</v>
+        <v>496</v>
       </c>
       <c r="B252">
-        <v>921</v>
+        <v>495</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>763</v>
+        <v>228</v>
       </c>
       <c r="B253">
-        <v>762</v>
+        <v>227</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>496</v>
+        <v>228</v>
       </c>
       <c r="B254">
-        <v>495</v>
+        <v>226</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B255">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>228</v>
+        <v>2457</v>
       </c>
       <c r="B256">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B257">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2457</v>
+        <v>256</v>
       </c>
       <c r="B258">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B259">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B260">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>239</v>
+        <v>2319</v>
       </c>
       <c r="B261">
-        <v>219</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="B262">
-        <v>218</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>2319</v>
+        <v>2054</v>
       </c>
       <c r="B263">
-        <v>2317</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>320</v>
+        <v>770</v>
       </c>
       <c r="B264">
-        <v>2059</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>2054</v>
+        <v>618</v>
       </c>
       <c r="B265">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>770</v>
-      </c>
-      <c r="B266">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>618</v>
-      </c>
-      <c r="B267">
         <v>573</v>
       </c>
     </row>

--- a/generate-id-replacing-report.xlsx
+++ b/generate-id-replacing-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Node\excerciseXlsxtoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2900CEA-3AB0-4972-9D66-D88026CF45ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED44EA5-A6BD-498E-B1B7-49AB285E21F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>oldId</t>
+  </si>
+  <si>
+    <t>newId</t>
   </si>
 </sst>
 </file>
@@ -72,12 +75,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,7 +363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -373,1722 +374,2002 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2312</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2">
+        <v>1035</v>
+      </c>
+      <c r="B2">
+        <v>1036</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2065</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3">
+        <v>2095</v>
+      </c>
+      <c r="B3">
+        <v>455</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2085</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4">
+        <v>817</v>
+      </c>
+      <c r="B4">
+        <v>2384</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1064</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5">
+        <v>359</v>
+      </c>
+      <c r="B5">
+        <v>354</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1861</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6">
+        <v>998</v>
+      </c>
+      <c r="B6">
+        <v>1004</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2117</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7">
+        <v>750</v>
+      </c>
+      <c r="B7">
+        <v>753</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1862</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="A8">
+        <v>1033</v>
+      </c>
+      <c r="B8">
+        <v>1037</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>793</v>
+      </c>
+      <c r="B10">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>541</v>
+      </c>
+      <c r="B11">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>818</v>
+      </c>
+      <c r="B12">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>819</v>
+      </c>
+      <c r="B13">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>824</v>
+      </c>
+      <c r="B14">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>571</v>
+      </c>
+      <c r="B15">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>586</v>
+      </c>
+      <c r="B16">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>851</v>
+      </c>
+      <c r="B17">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>889</v>
+      </c>
+      <c r="B18">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>958</v>
+      </c>
+      <c r="B20">
         <v>959</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1984</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>454</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>455</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1996</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>477</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>456</v>
+      </c>
+      <c r="B21">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>976</v>
+      </c>
+      <c r="B22">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>468</v>
+      </c>
+      <c r="B23">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>736</v>
+      </c>
+      <c r="B24">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>742</v>
+      </c>
+      <c r="B25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>963</v>
+      </c>
+      <c r="B26">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>777</v>
+      </c>
+      <c r="B27">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>778</v>
+      </c>
+      <c r="B28">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>844</v>
+      </c>
+      <c r="B29">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>854</v>
+      </c>
+      <c r="B30">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>655</v>
+      </c>
+      <c r="B31">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>406</v>
+      </c>
+      <c r="B32">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>669</v>
+      </c>
+      <c r="B33">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>415</v>
+      </c>
+      <c r="B34">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>162</v>
+      </c>
+      <c r="B35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>163</v>
+      </c>
+      <c r="B36">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>164</v>
+      </c>
+      <c r="B37">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>956</v>
+      </c>
+      <c r="B38">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>702</v>
+      </c>
+      <c r="B39">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>991</v>
+      </c>
+      <c r="B40">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>480</v>
+      </c>
+      <c r="B41">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>994</v>
+      </c>
+      <c r="B42">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>485</v>
+      </c>
+      <c r="B43">
         <v>487</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>758</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>261</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1029</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>293</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>492</v>
+      </c>
+      <c r="B44">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1005</v>
+      </c>
+      <c r="B45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>247</v>
+      </c>
+      <c r="B46">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>512</v>
+      </c>
+      <c r="B47">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>259</v>
+      </c>
+      <c r="B48">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>528</v>
+      </c>
+      <c r="B49">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>535</v>
+      </c>
+      <c r="B50">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1047</v>
+      </c>
+      <c r="B51">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1087</v>
+      </c>
+      <c r="B52">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1106</v>
+      </c>
+      <c r="B53">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1134</v>
+      </c>
+      <c r="B54">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>124</v>
+      </c>
+      <c r="B55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>136</v>
+      </c>
+      <c r="B56">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>137</v>
+      </c>
+      <c r="B57">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>138</v>
+      </c>
+      <c r="B58">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>201</v>
+      </c>
+      <c r="B59">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>760</v>
+      </c>
+      <c r="B60">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>513</v>
+      </c>
+      <c r="B61">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>516</v>
+      </c>
+      <c r="B62">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>531</v>
+      </c>
+      <c r="B63">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>534</v>
+      </c>
+      <c r="B64">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>597</v>
+      </c>
+      <c r="B65">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1125</v>
+      </c>
+      <c r="B66">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1126</v>
+      </c>
+      <c r="B67">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>488</v>
+      </c>
+      <c r="B68">
         <v>588</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>336</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>238</v>
+      </c>
+      <c r="B69">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>498</v>
+      </c>
+      <c r="B70">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>243</v>
+      </c>
+      <c r="B71">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>504</v>
+      </c>
+      <c r="B72">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1071</v>
+      </c>
+      <c r="B73">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1077</v>
+      </c>
+      <c r="B74">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1078</v>
+      </c>
+      <c r="B75">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1081</v>
+      </c>
+      <c r="B76">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>59</v>
+      </c>
+      <c r="B77">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1083</v>
+      </c>
+      <c r="B78">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>64</v>
+      </c>
+      <c r="B79">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>836</v>
+      </c>
+      <c r="B80">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>840</v>
+      </c>
+      <c r="B81">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>102</v>
+      </c>
+      <c r="B82">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>917</v>
+      </c>
+      <c r="B84">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>188</v>
+      </c>
+      <c r="B85">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>190</v>
+      </c>
+      <c r="B86">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>829</v>
+      </c>
+      <c r="B87">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>832</v>
+      </c>
+      <c r="B88">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>834</v>
+      </c>
+      <c r="B89">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>845</v>
+      </c>
+      <c r="B90">
         <v>849</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>343</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>855</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>344</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>346</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>97</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>865</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>356</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>882</v>
+      </c>
+      <c r="B91">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>358</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>363</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>364</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>365</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>366</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>881</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>634</v>
-      </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>385</v>
-      </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>912</v>
-      </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>664</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>1186</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>428</v>
-      </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>177</v>
-      </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>693</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>439</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>1207</v>
-      </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>440</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>1208</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="B92">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>296</v>
+      </c>
+      <c r="B93">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2090</v>
+      </c>
+      <c r="B94">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>847</v>
+      </c>
+      <c r="B95">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>891</v>
+      </c>
+      <c r="B96">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>920</v>
+      </c>
+      <c r="B97">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1176</v>
+      </c>
+      <c r="B98">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>952</v>
+      </c>
+      <c r="B99">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>852</v>
+      </c>
+      <c r="B100">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>740</v>
+      </c>
+      <c r="B102">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>812</v>
+      </c>
+      <c r="B103">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>295</v>
+      </c>
+      <c r="B104">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1100</v>
+      </c>
+      <c r="B105">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>846</v>
+      </c>
+      <c r="B106">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>139</v>
+      </c>
+      <c r="B107">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>940</v>
+      </c>
+      <c r="B108">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>734</v>
+      </c>
+      <c r="B109">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>743</v>
+      </c>
+      <c r="B110">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>981</v>
+      </c>
+      <c r="B111">
         <v>957</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>1981</v>
-      </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>964</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>712</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>969</v>
-      </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>1995</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>730</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>988</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>478</v>
-      </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>999</v>
-      </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>746</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>751</v>
-      </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>754</v>
-      </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>1011</v>
-      </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>1014</v>
-      </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>2048</v>
-      </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>260</v>
-      </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>1028</v>
-      </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>2309</v>
-      </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>263</v>
-      </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>2311</v>
-      </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>266</v>
-      </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>779</v>
-      </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>780</v>
-      </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>527</v>
-      </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>783</v>
-      </c>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>529</v>
-      </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>789</v>
-      </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>823</v>
+      </c>
+      <c r="B112">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1174</v>
+      </c>
+      <c r="B113">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1079</v>
+      </c>
+      <c r="B114">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>445</v>
+      </c>
+      <c r="B115">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>441</v>
+      </c>
+      <c r="B116">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>835</v>
+      </c>
+      <c r="B117">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1210</v>
+      </c>
+      <c r="B118">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>278</v>
       </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>1048</v>
-      </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>795</v>
-      </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>798</v>
-      </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>1056</v>
-      </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>296</v>
-      </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>2088</v>
-      </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>553</v>
-      </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>2090</v>
-      </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>44</v>
-      </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>2094</v>
-      </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>47</v>
-      </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>560</v>
-      </c>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>572</v>
-      </c>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>2109</v>
-      </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>847</v>
-      </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>856</v>
-      </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="B119">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>532</v>
+      </c>
+      <c r="B120">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1040</v>
+      </c>
+      <c r="B121">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>617</v>
+      </c>
+      <c r="B122">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>429</v>
+      </c>
+      <c r="B123">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>81</v>
+      </c>
+      <c r="B124">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>94</v>
+      </c>
+      <c r="B125">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>1998</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>734</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129" s="1">
         <v>737</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130" s="1">
         <v>739</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="A131" s="1">
         <v>740</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133" s="1">
         <v>997</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134" s="1">
         <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135" s="1">
         <v>743</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136" s="1">
         <v>1003</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137" s="1">
         <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138" s="1">
         <v>1009</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139" s="1">
         <v>2038</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140" s="1">
         <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141" s="1">
         <v>1024</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142" s="1">
         <v>1026</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143" s="1">
         <v>1032</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144" s="1">
         <v>1038</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145" s="1">
         <v>532</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="1">
         <v>1049</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147" s="1">
         <v>2073</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148" s="1">
         <v>2079</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149" s="1">
         <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150" s="1">
         <v>800</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151" s="1">
         <v>1061</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152" s="1">
         <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153" s="1">
         <v>1065</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="1">
         <v>811</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="1">
         <v>812</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="A157" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158" s="1">
         <v>1076</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="A159" s="1">
         <v>833</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160" s="1">
         <v>1091</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161" s="1">
         <v>1101</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="1">
         <v>1102</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163" s="1">
         <v>1103</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="A164" s="1">
         <v>1104</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="A165" s="1">
         <v>850</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="A166" s="1">
         <v>853</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="A167" s="1">
         <v>1115</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="A168" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169" s="1">
         <v>866</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="A170" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="A171" s="1">
         <v>867</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="A172" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="A173" s="1">
         <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="A174" s="1">
         <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="A175" s="1">
         <v>361</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="A176" s="1">
         <v>617</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177" s="1">
         <v>1138</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="A178" s="1">
         <v>1141</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="A179" s="1">
         <v>1143</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="A180" s="1">
         <v>1144</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="A181" s="1">
         <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="A182" s="1">
         <v>895</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="A183" s="1">
         <v>896</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="A184" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="A185" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="A186" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="A187" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="A188" s="1">
         <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="A189" s="1">
         <v>932</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="A190" s="1">
         <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="A191" s="1">
         <v>934</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="A192" s="1">
         <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="A193" s="1">
         <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="A194" s="1">
         <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="A195" s="1">
         <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="A196" s="1">
         <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="A197" s="1">
         <v>1993</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="A198" s="1">
         <v>981</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="A199" s="1">
         <v>984</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="A200" s="1">
         <v>985</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="A201" s="1">
         <v>2016</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="A202" s="1">
         <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+      <c r="A203" s="1">
         <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="A204" s="1">
         <v>2046</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+      <c r="A205" s="1">
         <v>1023</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="A206" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="A207" s="1">
         <v>519</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="A208" s="1">
         <v>523</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+      <c r="A209" s="1">
         <v>1046</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="A210" s="1">
         <v>539</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+      <c r="A211" s="1">
         <v>542</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="A212" s="1">
         <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="A213" s="1">
         <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="A214" s="1">
         <v>1067</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+      <c r="A215" s="1">
         <v>823</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+      <c r="A216" s="1">
         <v>1079</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+      <c r="A217" s="1">
         <v>1080</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="A218" s="1">
         <v>2106</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+      <c r="A219" s="1">
         <v>2107</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+      <c r="A220" s="1">
         <v>828</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+      <c r="A221" s="1">
         <v>1097</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="A222" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+      <c r="A223" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+      <c r="A224" s="1">
         <v>1100</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+      <c r="A225" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="A226" s="1">
         <v>846</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+      <c r="A227" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="A228" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="A229" s="1">
         <v>1109</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="A230" s="1">
         <v>1112</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+      <c r="A231" s="1">
         <v>1114</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="A232" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="A233" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="A234" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235" s="1">
         <v>96</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="A236" s="1">
         <v>613</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+      <c r="A237" s="1">
         <v>615</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="A238" s="1">
         <v>2678</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="A239" s="1">
         <v>127</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="A240" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+      <c r="A241" s="1">
         <v>1162</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="A242" s="1">
         <v>1930</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="A243" s="1">
         <v>139</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="A244" s="1">
         <v>910</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="A245" s="1">
         <v>414</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="A246" s="1">
         <v>930</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+      <c r="A247" s="1">
         <v>420</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="A248" s="1">
         <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="A249" s="1">
         <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="A250" s="1">
         <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+      <c r="A251" s="1">
         <v>696</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+      <c r="A252" s="1">
         <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+      <c r="A253" s="1">
         <v>446</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+      <c r="A254" s="1">
         <v>198</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+      <c r="A255" s="1">
         <v>987</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+      <c r="A256" s="1">
         <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+      <c r="A257" s="1">
         <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="A258" s="1">
         <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+      <c r="A259" s="1">
         <v>2555</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+      <c r="A260" s="1">
         <v>1020</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+      <c r="A261" s="1">
         <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+      <c r="A262" s="1">
         <v>525</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+      <c r="A263" s="1">
         <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
+      <c r="A264" s="1">
         <v>1039</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="A265" s="1">
         <v>1040</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+      <c r="A266" s="1">
         <v>1042</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
+      <c r="A267" s="1">
         <v>287</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
+      <c r="A268" s="1">
         <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
+      <c r="A269" s="1">
         <v>1068</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
+      <c r="A270" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+      <c r="A271" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
+      <c r="A272" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+      <c r="A273" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+      <c r="A274" s="1">
         <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
+      <c r="A275" s="1">
         <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
+      <c r="A276" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+      <c r="A277" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+      <c r="A278" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
+      <c r="A279" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
+      <c r="A280" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
+      <c r="A281" s="1">
         <v>1108</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
+      <c r="A282" s="1">
         <v>603</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
+      <c r="A283" s="1">
         <v>1118</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
+      <c r="A284" s="1">
         <v>1119</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
+      <c r="A285" s="1">
         <v>609</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
+      <c r="A286" s="1">
         <v>892</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
+      <c r="A287" s="1">
         <v>897</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
+      <c r="A288" s="1">
         <v>1159</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
+      <c r="A289" s="1">
         <v>393</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
+      <c r="A290" s="1">
         <v>397</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
+      <c r="A291" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
+      <c r="A292" s="1">
         <v>918</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
+      <c r="A293" s="1">
         <v>1174</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
+      <c r="A294" s="1">
         <v>919</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
+      <c r="A295" s="1">
         <v>920</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
+      <c r="A296" s="1">
         <v>1176</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
+      <c r="A297" s="1">
         <v>922</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
+      <c r="A298" s="1">
         <v>429</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
+      <c r="A299" s="1">
         <v>944</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
+      <c r="A300" s="1">
         <v>952</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
+      <c r="A301" s="1">
         <v>441</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
+      <c r="A302" s="1">
         <v>1210</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
+      <c r="A303" s="1">
         <v>189</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
+      <c r="A304" s="1">
         <v>192</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
+      <c r="A305" s="1">
         <v>195</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
+      <c r="A306" s="1">
         <v>2041</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
+      <c r="A307" s="1">
         <v>802</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="A308" s="1">
         <v>806</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
+      <c r="A309" s="1">
         <v>1075</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
+      <c r="A310" s="1">
         <v>1084</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
+      <c r="A311" s="1">
         <v>1085</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
+      <c r="A312" s="1">
         <v>835</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
+      <c r="A313" s="1">
         <v>838</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
+      <c r="A314" s="1">
         <v>839</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
+      <c r="A315" s="1">
         <v>841</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
+      <c r="A316" s="1">
         <v>852</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
+      <c r="A317" s="1">
         <v>602</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
+      <c r="A318" s="1">
         <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
+      <c r="A319" s="1">
         <v>915</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
+      <c r="A320" s="1">
         <v>916</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
+      <c r="A321" s="1">
         <v>807</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
+      <c r="A322" s="1">
         <v>821</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3">
+      <c r="A323" s="1">
         <v>830</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
+      <c r="A324" s="1">
         <v>831</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
+      <c r="A325" s="1">
         <v>604</v>
       </c>
     </row>

--- a/generate-id-replacing-report.xlsx
+++ b/generate-id-replacing-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Node\excerciseXlsxtoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED44EA5-A6BD-498E-B1B7-49AB285E21F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C72C45-A0F6-4208-9C58-D4F1797C0586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,11 +75,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,16 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,1006 +1369,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
-        <v>604</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
